--- a/0_docs/CheckListForm_6week.xlsx
+++ b/0_docs/CheckListForm_6week.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\유도진\Dropbox\MJU\Coin\2.study\21_1\Study-21-1-codingTest\0_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOJINYOU\Dropbox\MJU\Coin\2.study\21_1\Study-21-1-codingTest\0_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CD7C51-F44F-4341-AE85-329DB06F5555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625CF937-F99A-47D1-AB79-489D53F7F582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="645" windowWidth="14355" windowHeight="15555" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8964" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="56">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,114 +108,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Greedy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고스름돈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/5585</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1439</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뒤집기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등수 매기기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/2212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>센서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/11047</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동전 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/2875</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대회 or 인턴</t>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/10610</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1783</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병든 나이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1931</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회의실 배정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/11399</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/2873</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롤러코스터(선택문제)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1744</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수 묶기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1461</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1781</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컵라면(선택문제)</t>
+    <t>Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1697</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨바꼭질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효율적인 해킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/11724</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결요소의 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이분 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/10451</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순열 사이클</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/9466</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텀 프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단지번호붙이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/4963</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬의 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/7576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2178</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미로 탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1991</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리의 지름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/10282</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/5719</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1774</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주신과의 교감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거의 최단 경로(선택문제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실버2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실버1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리순회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +310,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -284,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -647,6 +695,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -656,7 +719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,6 +764,9 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1086,29 +1152,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA290B9-D938-4FB9-A2F0-C9496544FB19}">
-  <dimension ref="B1:V170"/>
+  <dimension ref="B1:G195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="H166" sqref="H166"/>
+    <sheetView tabSelected="1" topLeftCell="B256" workbookViewId="0">
+      <selection activeCell="B16" sqref="A16:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="4.625" customWidth="1"/>
-    <col min="4" max="4" width="39.125" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" customWidth="1"/>
+    <col min="4" max="4" width="39.09765625" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" customWidth="1"/>
+    <col min="6" max="6" width="16.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1116,33 +1182,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:6" s="7" customFormat="1" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" s="7" customFormat="1" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
+      <c r="F4" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
@@ -1151,118 +1219,120 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="21" t="s">
+    <row r="6" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="29"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="35" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="34"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="34"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="33"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="34"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="34"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="35"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="33"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B13" s="34"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="34"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="35"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="2:6" s="7" customFormat="1" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="2:6" s="7" customFormat="1" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="30" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B16" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="24" t="s">
+      <c r="F16" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>4</v>
@@ -1271,116 +1341,112 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="29"/>
-    </row>
-    <row r="19" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="35" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="33"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="34"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="33"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="34"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="33"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="34"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="34"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="35"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="32" t="s">
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="33"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25" s="34"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="34"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="35"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
-    </row>
-    <row r="27" spans="2:22" s="7" customFormat="1" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="30" t="s">
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+    </row>
+    <row r="27" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B28" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="31"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="24" t="s">
+      <c r="F28" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="10" t="s">
         <v>23</v>
       </c>
@@ -1391,115 +1457,114 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
+    <row r="30" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="29"/>
-    </row>
-    <row r="31" spans="2:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="35" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B32" s="33"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B32" s="34"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="V32" s="14">
-        <v>44267</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="33"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="34"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="33"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="34"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="34"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="35"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="32" t="s">
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="33"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="34"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="34"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="35"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-    </row>
-    <row r="39" spans="2:6" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="30" t="s">
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B40" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="31"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="24" t="s">
+      <c r="F40" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="25"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>4</v>
@@ -1508,112 +1573,114 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="21" t="s">
+    <row r="42" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="29"/>
-    </row>
-    <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="35" t="s">
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="30"/>
+    </row>
+    <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="33"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B44" s="34"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="33"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="34"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="20"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="33"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B46" s="34"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
-    </row>
-    <row r="47" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="34"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="35"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="32" t="s">
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B48" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="17"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="33"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B49" s="34"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20"/>
-    </row>
-    <row r="50" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="34"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="35"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="28"/>
-    </row>
-    <row r="51" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="30" t="s">
+      <c r="E50" s="28"/>
+      <c r="F50" s="29"/>
+    </row>
+    <row r="51" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B52" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="31"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="14"/>
-    </row>
-    <row r="53" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="24" t="s">
+      <c r="F52" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="25"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>4</v>
@@ -1622,112 +1689,114 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="21" t="s">
+    <row r="54" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="29"/>
-    </row>
-    <row r="55" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="35" t="s">
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="30"/>
+    </row>
+    <row r="55" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="11"/>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="17"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="33"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B56" s="37"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="20"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="33"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B57" s="37"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="20"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="33"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B58" s="37"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="19"/>
-      <c r="F58" s="20"/>
-    </row>
-    <row r="59" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="34"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="38"/>
       <c r="C59" s="13"/>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="27"/>
-      <c r="F59" s="28"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="32" t="s">
+      <c r="E59" s="28"/>
+      <c r="F59" s="29"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B60" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="17"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="33"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B61" s="34"/>
       <c r="C61" s="12"/>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="19"/>
-      <c r="F61" s="20"/>
-    </row>
-    <row r="62" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="34"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="35"/>
       <c r="C62" s="13"/>
-      <c r="D62" s="26" t="s">
+      <c r="D62" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="27"/>
-      <c r="F62" s="28"/>
-    </row>
-    <row r="63" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="30" t="s">
+      <c r="E62" s="28"/>
+      <c r="F62" s="29"/>
+    </row>
+    <row r="63" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B64" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="1">
+      <c r="C64" s="32"/>
+      <c r="D64" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F64" s="14"/>
-    </row>
-    <row r="65" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="24" t="s">
+      <c r="F64" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="25"/>
+      <c r="C65" s="26"/>
       <c r="D65" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>4</v>
@@ -1736,112 +1805,114 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="21" t="s">
+    <row r="66" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="29"/>
-    </row>
-    <row r="67" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="35" t="s">
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="30"/>
+    </row>
+    <row r="67" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="11"/>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="17"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="33"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B68" s="37"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="20"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="33"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B69" s="37"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="20"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="33"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B70" s="37"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="19"/>
-      <c r="F70" s="20"/>
-    </row>
-    <row r="71" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="34"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="38"/>
       <c r="C71" s="13"/>
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="27"/>
-      <c r="F71" s="28"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="32" t="s">
+      <c r="E71" s="28"/>
+      <c r="F71" s="29"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B72" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="17"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="33"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B73" s="34"/>
       <c r="C73" s="12"/>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="19"/>
-      <c r="F73" s="20"/>
-    </row>
-    <row r="74" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="34"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="35"/>
       <c r="C74" s="13"/>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="27"/>
-      <c r="F74" s="28"/>
-    </row>
-    <row r="75" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="30" t="s">
+      <c r="E74" s="28"/>
+      <c r="F74" s="29"/>
+    </row>
+    <row r="75" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B76" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="31"/>
+      <c r="C76" s="32"/>
       <c r="D76" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F76" s="14"/>
-    </row>
-    <row r="77" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="24" t="s">
+      <c r="F76" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="25"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>4</v>
@@ -1850,112 +1921,114 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="21" t="s">
+    <row r="78" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="29"/>
-    </row>
-    <row r="79" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="35" t="s">
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="30"/>
+    </row>
+    <row r="79" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="11"/>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E79" s="16"/>
-      <c r="F79" s="17"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="33"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="18"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B80" s="34"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="19"/>
-      <c r="F80" s="20"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="33"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B81" s="34"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="19"/>
-      <c r="F81" s="20"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="33"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B82" s="34"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="19"/>
-      <c r="F82" s="20"/>
-    </row>
-    <row r="83" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="34"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="35"/>
       <c r="C83" s="13"/>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="27"/>
-      <c r="F83" s="28"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="32" t="s">
+      <c r="E83" s="28"/>
+      <c r="F83" s="29"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B84" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="16"/>
-      <c r="F84" s="17"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="33"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="18"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B85" s="34"/>
       <c r="C85" s="12"/>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E85" s="19"/>
-      <c r="F85" s="20"/>
-    </row>
-    <row r="86" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="34"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="21"/>
+    </row>
+    <row r="86" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="35"/>
       <c r="C86" s="13"/>
-      <c r="D86" s="26" t="s">
+      <c r="D86" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E86" s="27"/>
-      <c r="F86" s="28"/>
-    </row>
-    <row r="87" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B88" s="30" t="s">
+      <c r="E86" s="28"/>
+      <c r="F86" s="29"/>
+    </row>
+    <row r="87" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B88" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="31"/>
+      <c r="C88" s="32"/>
       <c r="D88" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F88" s="14"/>
-    </row>
-    <row r="89" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="24" t="s">
+      <c r="F88" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="25"/>
+      <c r="C89" s="26"/>
       <c r="D89" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>4</v>
@@ -1964,112 +2037,114 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="21" t="s">
+    <row r="90" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="29"/>
-    </row>
-    <row r="91" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="35" t="s">
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="30"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B91" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C91" s="11"/>
-      <c r="D91" s="15" t="s">
+      <c r="D91" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E91" s="16"/>
-      <c r="F91" s="17"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B92" s="36"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="18"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B92" s="34"/>
       <c r="C92" s="4"/>
-      <c r="D92" s="18" t="s">
+      <c r="D92" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="19"/>
-      <c r="F92" s="20"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B93" s="36"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="21"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B93" s="34"/>
       <c r="C93" s="4"/>
-      <c r="D93" s="18" t="s">
+      <c r="D93" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="19"/>
-      <c r="F93" s="20"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B94" s="36"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="21"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B94" s="34"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="18" t="s">
+      <c r="D94" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="19"/>
-      <c r="F94" s="20"/>
-    </row>
-    <row r="95" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="37"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="21"/>
+    </row>
+    <row r="95" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B95" s="35"/>
       <c r="C95" s="13"/>
-      <c r="D95" s="26" t="s">
+      <c r="D95" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="27"/>
-      <c r="F95" s="28"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B96" s="32" t="s">
+      <c r="E95" s="28"/>
+      <c r="F95" s="29"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B96" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="15" t="s">
+      <c r="D96" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E96" s="16"/>
-      <c r="F96" s="17"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B97" s="33"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="18"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B97" s="34"/>
       <c r="C97" s="12"/>
-      <c r="D97" s="18" t="s">
+      <c r="D97" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E97" s="19"/>
-      <c r="F97" s="20"/>
-    </row>
-    <row r="98" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="34"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="21"/>
+    </row>
+    <row r="98" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B98" s="35"/>
       <c r="C98" s="13"/>
-      <c r="D98" s="26" t="s">
+      <c r="D98" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="27"/>
-      <c r="F98" s="28"/>
-    </row>
-    <row r="99" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B100" s="30" t="s">
+      <c r="E98" s="28"/>
+      <c r="F98" s="29"/>
+    </row>
+    <row r="99" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B100" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="31"/>
+      <c r="C100" s="32"/>
       <c r="D100" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F100" s="14"/>
-    </row>
-    <row r="101" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="24" t="s">
+      <c r="F100" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B101" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C101" s="25"/>
+      <c r="C101" s="26"/>
       <c r="D101" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>4</v>
@@ -2078,112 +2153,114 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="21" t="s">
+    <row r="102" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B102" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="29"/>
-    </row>
-    <row r="103" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="35" t="s">
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="30"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B103" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C103" s="11"/>
-      <c r="D103" s="15" t="s">
+      <c r="D103" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E103" s="16"/>
-      <c r="F103" s="17"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B104" s="36"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="18"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B104" s="34"/>
       <c r="C104" s="4"/>
-      <c r="D104" s="18" t="s">
+      <c r="D104" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="19"/>
-      <c r="F104" s="20"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105" s="36"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="21"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B105" s="34"/>
       <c r="C105" s="4"/>
-      <c r="D105" s="18" t="s">
+      <c r="D105" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E105" s="19"/>
-      <c r="F105" s="20"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B106" s="36"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="21"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B106" s="34"/>
       <c r="C106" s="4"/>
-      <c r="D106" s="18" t="s">
+      <c r="D106" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="19"/>
-      <c r="F106" s="20"/>
-    </row>
-    <row r="107" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="37"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="21"/>
+    </row>
+    <row r="107" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B107" s="35"/>
       <c r="C107" s="13"/>
-      <c r="D107" s="26" t="s">
+      <c r="D107" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="27"/>
-      <c r="F107" s="28"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B108" s="32" t="s">
+      <c r="E107" s="28"/>
+      <c r="F107" s="29"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B108" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C108" s="1"/>
-      <c r="D108" s="15" t="s">
+      <c r="D108" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E108" s="16"/>
-      <c r="F108" s="17"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B109" s="33"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="18"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B109" s="34"/>
       <c r="C109" s="12"/>
-      <c r="D109" s="18" t="s">
+      <c r="D109" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E109" s="19"/>
-      <c r="F109" s="20"/>
-    </row>
-    <row r="110" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="34"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="21"/>
+    </row>
+    <row r="110" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B110" s="35"/>
       <c r="C110" s="13"/>
-      <c r="D110" s="26" t="s">
+      <c r="D110" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E110" s="27"/>
-      <c r="F110" s="28"/>
-    </row>
-    <row r="111" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B112" s="30" t="s">
+      <c r="E110" s="28"/>
+      <c r="F110" s="29"/>
+    </row>
+    <row r="111" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B112" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C112" s="31"/>
+      <c r="C112" s="32"/>
       <c r="D112" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F112" s="14"/>
-    </row>
-    <row r="113" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="24" t="s">
+      <c r="F112" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B113" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="25"/>
+      <c r="C113" s="26"/>
       <c r="D113" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>4</v>
@@ -2192,112 +2269,114 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="21" t="s">
+    <row r="114" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B114" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="29"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B115" s="35" t="s">
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="30"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B115" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C115" s="11"/>
-      <c r="D115" s="15" t="s">
+      <c r="D115" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E115" s="16"/>
-      <c r="F115" s="17"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B116" s="33"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="18"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B116" s="34"/>
       <c r="C116" s="4"/>
-      <c r="D116" s="18" t="s">
+      <c r="D116" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="19"/>
-      <c r="F116" s="20"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B117" s="33"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="21"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B117" s="34"/>
       <c r="C117" s="4"/>
-      <c r="D117" s="18" t="s">
+      <c r="D117" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E117" s="19"/>
-      <c r="F117" s="20"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B118" s="33"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="21"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B118" s="34"/>
       <c r="C118" s="4"/>
-      <c r="D118" s="18" t="s">
+      <c r="D118" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E118" s="19"/>
-      <c r="F118" s="20"/>
-    </row>
-    <row r="119" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="34"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="21"/>
+    </row>
+    <row r="119" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B119" s="35"/>
       <c r="C119" s="13"/>
-      <c r="D119" s="26" t="s">
+      <c r="D119" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="27"/>
-      <c r="F119" s="28"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B120" s="32" t="s">
+      <c r="E119" s="28"/>
+      <c r="F119" s="29"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B120" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="1"/>
-      <c r="D120" s="15" t="s">
+      <c r="D120" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E120" s="16"/>
-      <c r="F120" s="17"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B121" s="33"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="18"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B121" s="34"/>
       <c r="C121" s="12"/>
-      <c r="D121" s="18" t="s">
+      <c r="D121" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E121" s="19"/>
-      <c r="F121" s="20"/>
-    </row>
-    <row r="122" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="34"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="21"/>
+    </row>
+    <row r="122" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B122" s="35"/>
       <c r="C122" s="13"/>
-      <c r="D122" s="26" t="s">
+      <c r="D122" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E122" s="27"/>
-      <c r="F122" s="28"/>
-    </row>
-    <row r="123" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B124" s="30" t="s">
+      <c r="E122" s="28"/>
+      <c r="F122" s="29"/>
+    </row>
+    <row r="123" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B124" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="31"/>
+      <c r="C124" s="32"/>
       <c r="D124" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F124" s="14"/>
-    </row>
-    <row r="125" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="24" t="s">
+      <c r="F124" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B125" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="25"/>
+      <c r="C125" s="26"/>
       <c r="D125" s="10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>4</v>
@@ -2306,112 +2385,114 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="21" t="s">
+    <row r="126" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B126" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C126" s="22"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="29"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B127" s="35" t="s">
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="30"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B127" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="11"/>
-      <c r="D127" s="15" t="s">
+      <c r="D127" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E127" s="16"/>
-      <c r="F127" s="17"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B128" s="33"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="18"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B128" s="34"/>
       <c r="C128" s="4"/>
-      <c r="D128" s="18" t="s">
+      <c r="D128" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E128" s="19"/>
-      <c r="F128" s="20"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B129" s="33"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="21"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B129" s="34"/>
       <c r="C129" s="4"/>
-      <c r="D129" s="18" t="s">
+      <c r="D129" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E129" s="19"/>
-      <c r="F129" s="20"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B130" s="33"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="21"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B130" s="34"/>
       <c r="C130" s="4"/>
-      <c r="D130" s="18" t="s">
+      <c r="D130" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E130" s="19"/>
-      <c r="F130" s="20"/>
-    </row>
-    <row r="131" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="34"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="21"/>
+    </row>
+    <row r="131" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B131" s="35"/>
       <c r="C131" s="13"/>
-      <c r="D131" s="26" t="s">
+      <c r="D131" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E131" s="27"/>
-      <c r="F131" s="28"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B132" s="32" t="s">
+      <c r="E131" s="28"/>
+      <c r="F131" s="29"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B132" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C132" s="1"/>
-      <c r="D132" s="15" t="s">
+      <c r="D132" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E132" s="16"/>
-      <c r="F132" s="17"/>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B133" s="33"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="18"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B133" s="34"/>
       <c r="C133" s="12"/>
-      <c r="D133" s="18" t="s">
+      <c r="D133" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E133" s="19"/>
-      <c r="F133" s="20"/>
-    </row>
-    <row r="134" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="34"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="21"/>
+    </row>
+    <row r="134" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B134" s="35"/>
       <c r="C134" s="13"/>
-      <c r="D134" s="26" t="s">
+      <c r="D134" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E134" s="27"/>
-      <c r="F134" s="28"/>
-    </row>
-    <row r="135" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B136" s="30" t="s">
+      <c r="E134" s="28"/>
+      <c r="F134" s="29"/>
+    </row>
+    <row r="135" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B136" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C136" s="31"/>
+      <c r="C136" s="32"/>
       <c r="D136" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F136" s="14"/>
-    </row>
-    <row r="137" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="24" t="s">
+      <c r="F136" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B137" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="25"/>
+      <c r="C137" s="26"/>
       <c r="D137" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>4</v>
@@ -2420,112 +2501,114 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="21" t="s">
+    <row r="138" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B138" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C138" s="22"/>
-      <c r="D138" s="22"/>
-      <c r="E138" s="22"/>
-      <c r="F138" s="29"/>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B139" s="35" t="s">
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="30"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B139" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C139" s="11"/>
-      <c r="D139" s="15" t="s">
+      <c r="D139" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E139" s="16"/>
-      <c r="F139" s="17"/>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B140" s="33"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="18"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B140" s="34"/>
       <c r="C140" s="4"/>
-      <c r="D140" s="18" t="s">
+      <c r="D140" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E140" s="19"/>
-      <c r="F140" s="20"/>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B141" s="33"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="21"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B141" s="34"/>
       <c r="C141" s="4"/>
-      <c r="D141" s="18" t="s">
+      <c r="D141" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E141" s="19"/>
-      <c r="F141" s="20"/>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B142" s="33"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="21"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B142" s="34"/>
       <c r="C142" s="4"/>
-      <c r="D142" s="18" t="s">
+      <c r="D142" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E142" s="19"/>
-      <c r="F142" s="20"/>
-    </row>
-    <row r="143" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="34"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="21"/>
+    </row>
+    <row r="143" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B143" s="35"/>
       <c r="C143" s="13"/>
-      <c r="D143" s="26" t="s">
+      <c r="D143" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E143" s="27"/>
-      <c r="F143" s="28"/>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B144" s="32" t="s">
+      <c r="E143" s="28"/>
+      <c r="F143" s="29"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B144" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C144" s="1"/>
-      <c r="D144" s="15" t="s">
+      <c r="D144" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E144" s="16"/>
-      <c r="F144" s="17"/>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B145" s="33"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="18"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B145" s="34"/>
       <c r="C145" s="12"/>
-      <c r="D145" s="18" t="s">
+      <c r="D145" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E145" s="19"/>
-      <c r="F145" s="20"/>
-    </row>
-    <row r="146" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="34"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="21"/>
+    </row>
+    <row r="146" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B146" s="35"/>
       <c r="C146" s="13"/>
-      <c r="D146" s="26" t="s">
+      <c r="D146" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E146" s="27"/>
-      <c r="F146" s="28"/>
-    </row>
-    <row r="147" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B148" s="30" t="s">
+      <c r="E146" s="28"/>
+      <c r="F146" s="29"/>
+    </row>
+    <row r="147" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B148" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C148" s="31"/>
+      <c r="C148" s="32"/>
       <c r="D148" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F148" s="14"/>
-    </row>
-    <row r="149" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="24" t="s">
+      <c r="F148" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B149" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="25"/>
+      <c r="C149" s="26"/>
       <c r="D149" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>4</v>
@@ -2534,112 +2617,114 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="21" t="s">
+    <row r="150" spans="2:6" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B150" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C150" s="22"/>
-      <c r="D150" s="22"/>
-      <c r="E150" s="22"/>
-      <c r="F150" s="29"/>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B151" s="35" t="s">
+      <c r="C150" s="23"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="30"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B151" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C151" s="11"/>
-      <c r="D151" s="15" t="s">
+      <c r="D151" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E151" s="16"/>
-      <c r="F151" s="17"/>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B152" s="33"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="18"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B152" s="34"/>
       <c r="C152" s="4"/>
-      <c r="D152" s="18" t="s">
+      <c r="D152" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E152" s="19"/>
-      <c r="F152" s="20"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B153" s="33"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="21"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B153" s="34"/>
       <c r="C153" s="4"/>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E153" s="19"/>
-      <c r="F153" s="20"/>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B154" s="33"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="21"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B154" s="34"/>
       <c r="C154" s="4"/>
-      <c r="D154" s="18" t="s">
+      <c r="D154" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E154" s="19"/>
-      <c r="F154" s="20"/>
-    </row>
-    <row r="155" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="34"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="21"/>
+    </row>
+    <row r="155" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B155" s="35"/>
       <c r="C155" s="13"/>
-      <c r="D155" s="26" t="s">
+      <c r="D155" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="27"/>
-      <c r="F155" s="28"/>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B156" s="32" t="s">
+      <c r="E155" s="28"/>
+      <c r="F155" s="29"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B156" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C156" s="1"/>
-      <c r="D156" s="15" t="s">
+      <c r="D156" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E156" s="16"/>
-      <c r="F156" s="17"/>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B157" s="33"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="18"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B157" s="34"/>
       <c r="C157" s="12"/>
-      <c r="D157" s="18" t="s">
+      <c r="D157" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E157" s="19"/>
-      <c r="F157" s="20"/>
-    </row>
-    <row r="158" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="34"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="21"/>
+    </row>
+    <row r="158" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B158" s="35"/>
       <c r="C158" s="13"/>
-      <c r="D158" s="26" t="s">
+      <c r="D158" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E158" s="27"/>
-      <c r="F158" s="28"/>
-    </row>
-    <row r="159" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B160" s="30" t="s">
+      <c r="E158" s="28"/>
+      <c r="F158" s="29"/>
+    </row>
+    <row r="159" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B160" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C160" s="31"/>
+      <c r="C160" s="32"/>
       <c r="D160" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F160" s="14"/>
-    </row>
-    <row r="161" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="24" t="s">
+      <c r="F160" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B161" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C161" s="25"/>
+      <c r="C161" s="26"/>
       <c r="D161" s="10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>4</v>
@@ -2648,101 +2733,362 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="21" t="s">
+    <row r="162" spans="2:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B162" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C162" s="22"/>
-      <c r="D162" s="22"/>
-      <c r="E162" s="22"/>
-      <c r="F162" s="29"/>
-    </row>
-    <row r="163" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="35" t="s">
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="30"/>
+    </row>
+    <row r="163" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B163" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C163" s="11"/>
-      <c r="D163" s="15" t="s">
+      <c r="D163" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E163" s="16"/>
-      <c r="F163" s="17"/>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B164" s="33"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="18"/>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B164" s="37"/>
       <c r="C164" s="4"/>
-      <c r="D164" s="18" t="s">
+      <c r="D164" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E164" s="19"/>
-      <c r="F164" s="20"/>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B165" s="33"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="21"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B165" s="37"/>
       <c r="C165" s="4"/>
-      <c r="D165" s="18" t="s">
+      <c r="D165" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E165" s="19"/>
-      <c r="F165" s="20"/>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B166" s="33"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="21"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B166" s="37"/>
       <c r="C166" s="4"/>
-      <c r="D166" s="18" t="s">
+      <c r="D166" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E166" s="19"/>
-      <c r="F166" s="20"/>
-    </row>
-    <row r="167" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="34"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="21"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B167" s="38"/>
       <c r="C167" s="13"/>
-      <c r="D167" s="26" t="s">
+      <c r="D167" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="27"/>
-      <c r="F167" s="28"/>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B168" s="32" t="s">
+      <c r="E167" s="28"/>
+      <c r="F167" s="29"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B168" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C168" s="1"/>
-      <c r="D168" s="15" t="s">
+      <c r="D168" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E168" s="16"/>
-      <c r="F168" s="17"/>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B169" s="33"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="18"/>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B169" s="34"/>
       <c r="C169" s="12"/>
-      <c r="D169" s="18" t="s">
+      <c r="D169" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E169" s="19"/>
-      <c r="F169" s="20"/>
-    </row>
-    <row r="170" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="34"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="21"/>
+    </row>
+    <row r="170" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B170" s="35"/>
       <c r="C170" s="13"/>
-      <c r="D170" s="26" t="s">
+      <c r="D170" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E170" s="27"/>
-      <c r="F170" s="28"/>
+      <c r="E170" s="28"/>
+      <c r="F170" s="29"/>
+    </row>
+    <row r="171" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G171" s="15"/>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B172" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="32"/>
+      <c r="D172" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B173" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" s="26"/>
+      <c r="D173" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B174" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" s="23"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="30"/>
+    </row>
+    <row r="175" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B175" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" s="11"/>
+      <c r="D175" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="17"/>
+      <c r="F175" s="18"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B176" s="34"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="20"/>
+      <c r="F176" s="21"/>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B177" s="34"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" s="20"/>
+      <c r="F177" s="21"/>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B178" s="34"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" s="20"/>
+      <c r="F178" s="21"/>
+    </row>
+    <row r="179" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B179" s="35"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" s="28"/>
+      <c r="F179" s="29"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B180" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="1"/>
+      <c r="D180" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180" s="17"/>
+      <c r="F180" s="18"/>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B181" s="34"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" s="20"/>
+      <c r="F181" s="21"/>
+    </row>
+    <row r="182" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B182" s="35"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E182" s="28"/>
+      <c r="F182" s="29"/>
+    </row>
+    <row r="183" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G183" s="15"/>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B184" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="32"/>
+      <c r="D184" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F184" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B185" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" s="26"/>
+      <c r="D185" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B186" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="23"/>
+      <c r="D186" s="23"/>
+      <c r="E186" s="23"/>
+      <c r="F186" s="30"/>
+    </row>
+    <row r="187" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B187" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C187" s="11"/>
+      <c r="D187" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="17"/>
+      <c r="F187" s="18"/>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B188" s="34"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" s="20"/>
+      <c r="F188" s="21"/>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B189" s="34"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" s="20"/>
+      <c r="F189" s="21"/>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B190" s="34"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" s="20"/>
+      <c r="F190" s="21"/>
+    </row>
+    <row r="191" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B191" s="35"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" s="28"/>
+      <c r="F191" s="29"/>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B192" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="1"/>
+      <c r="D192" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" s="17"/>
+      <c r="F192" s="18"/>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B193" s="34"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E193" s="20"/>
+      <c r="F193" s="21"/>
+    </row>
+    <row r="194" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B194" s="35"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194" s="28"/>
+      <c r="F194" s="29"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G195" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="183">
+  <mergeCells count="209">
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="D194:F194"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="D180:F180"/>
+    <mergeCell ref="D181:F181"/>
+    <mergeCell ref="D182:F182"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:B191"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="D189:F189"/>
+    <mergeCell ref="D190:F190"/>
+    <mergeCell ref="D191:F191"/>
     <mergeCell ref="B168:B170"/>
     <mergeCell ref="D168:F168"/>
     <mergeCell ref="D169:F169"/>
     <mergeCell ref="D170:F170"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="D156:F156"/>
-    <mergeCell ref="D157:F157"/>
-    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B175:B179"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="D176:F176"/>
+    <mergeCell ref="D177:F177"/>
+    <mergeCell ref="D178:F178"/>
+    <mergeCell ref="D179:F179"/>
     <mergeCell ref="B160:C160"/>
     <mergeCell ref="B161:C161"/>
     <mergeCell ref="B162:F162"/>
@@ -2752,6 +3098,10 @@
     <mergeCell ref="D165:F165"/>
     <mergeCell ref="D166:F166"/>
     <mergeCell ref="D167:F167"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="D158:F158"/>
     <mergeCell ref="B144:B146"/>
     <mergeCell ref="D144:F144"/>
     <mergeCell ref="D145:F145"/>
@@ -2791,6 +3141,10 @@
     <mergeCell ref="D129:F129"/>
     <mergeCell ref="D130:F130"/>
     <mergeCell ref="D131:F131"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D110:F110"/>
     <mergeCell ref="B112:C112"/>
     <mergeCell ref="B113:C113"/>
     <mergeCell ref="B114:F114"/>
@@ -2800,143 +3154,140 @@
     <mergeCell ref="D117:F117"/>
     <mergeCell ref="D118:F118"/>
     <mergeCell ref="D119:F119"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D23:F23"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D31:F31"/>
     <mergeCell ref="D60:F60"/>
     <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D86:F86"/>
     <mergeCell ref="D85:F85"/>
     <mergeCell ref="D84:F84"/>
     <mergeCell ref="D83:F83"/>
     <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D97:F97"/>
     <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B88:C88"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:F78"/>
     <mergeCell ref="B79:B83"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D79:F79"/>
     <mergeCell ref="B72:B74"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:F66"/>
     <mergeCell ref="B67:B71"/>
-    <mergeCell ref="D86:F86"/>
     <mergeCell ref="B60:B62"/>
     <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:F54"/>
     <mergeCell ref="B55:B59"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:B35"/>
     <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{DE7CAFCB-44D3-423C-B1DA-8DCE489C260B}"/>
-    <hyperlink ref="D17" r:id="rId2" xr:uid="{B158D943-4964-46E0-8140-65A58587D173}"/>
-    <hyperlink ref="D41" r:id="rId3" xr:uid="{06864EE7-407E-4758-9D72-A8A3C83966B9}"/>
-    <hyperlink ref="D53" r:id="rId4" xr:uid="{EF52BCC8-3789-4B3F-BA9A-71112BA87054}"/>
-    <hyperlink ref="D65" r:id="rId5" xr:uid="{15C122BD-1B12-4089-A31E-8363C895C9AD}"/>
-    <hyperlink ref="D89" r:id="rId6" xr:uid="{A38AB38A-B392-46FB-B787-340AAC82704D}"/>
-    <hyperlink ref="D113" r:id="rId7" xr:uid="{9FE2663A-CE97-46C4-B0FA-30B19B10EEAE}"/>
-    <hyperlink ref="D125" r:id="rId8" xr:uid="{937E1C92-08C0-4E82-A84B-275C478E51B3}"/>
-    <hyperlink ref="D77" r:id="rId9" xr:uid="{EDC2A27B-CBE7-40CC-BD63-0B5897EAC004}"/>
-    <hyperlink ref="D101" r:id="rId10" xr:uid="{7F3D750C-30BE-4F76-A8B8-311810AF811A}"/>
-    <hyperlink ref="D137" r:id="rId11" xr:uid="{7C12E398-563F-4EA4-9F76-8BFBEEA283C0}"/>
-    <hyperlink ref="D149" r:id="rId12" xr:uid="{EE493205-3273-43C0-AA18-4E5680971685}"/>
-    <hyperlink ref="D29" r:id="rId13" xr:uid="{1C87A4CE-3703-448C-A373-BCEB0D2F0BFD}"/>
-    <hyperlink ref="D161" r:id="rId14" xr:uid="{1C6F8BA6-714B-4C4E-91A7-C0D37EEE8789}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{B158D943-4964-46E0-8140-65A58587D173}"/>
+    <hyperlink ref="D17" r:id="rId2" xr:uid="{EF52BCC8-3789-4B3F-BA9A-71112BA87054}"/>
+    <hyperlink ref="D29" r:id="rId3" xr:uid="{15C122BD-1B12-4089-A31E-8363C895C9AD}"/>
+    <hyperlink ref="D53" r:id="rId4" xr:uid="{A38AB38A-B392-46FB-B787-340AAC82704D}"/>
+    <hyperlink ref="D77" r:id="rId5" xr:uid="{5B60D571-F54E-436F-B754-D15AAF9257F9}"/>
+    <hyperlink ref="D89" r:id="rId6" xr:uid="{9FE2663A-CE97-46C4-B0FA-30B19B10EEAE}"/>
+    <hyperlink ref="D101" r:id="rId7" xr:uid="{937E1C92-08C0-4E82-A84B-275C478E51B3}"/>
+    <hyperlink ref="D41" r:id="rId8" xr:uid="{EDC2A27B-CBE7-40CC-BD63-0B5897EAC004}"/>
+    <hyperlink ref="D65" r:id="rId9" xr:uid="{7F3D750C-30BE-4F76-A8B8-311810AF811A}"/>
+    <hyperlink ref="D113" r:id="rId10" xr:uid="{7C12E398-563F-4EA4-9F76-8BFBEEA283C0}"/>
+    <hyperlink ref="D137" r:id="rId11" xr:uid="{BB53E8CF-1F46-49D0-B258-7D0973F39B22}"/>
+    <hyperlink ref="D149" r:id="rId12" xr:uid="{50D073E7-6273-4F6D-8227-C1508CF3F24C}"/>
+    <hyperlink ref="D173" r:id="rId13" xr:uid="{90EDFAF5-ACBA-4BB8-BDF5-4A6116222500}"/>
+    <hyperlink ref="D161" r:id="rId14" xr:uid="{198833CE-73FE-4E09-B265-C82E9EC7C455}"/>
+    <hyperlink ref="D185" r:id="rId15" xr:uid="{343D3DE2-DE1D-4C7F-AA92-D5A629AA8E29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>